--- a/results/comparison_40_10_9.xlsx
+++ b/results/comparison_40_10_9.xlsx
@@ -1065,18 +1065,18 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="24.5663716814159" customWidth="1"/>
-    <col min="2" max="2" width="19.5221238938053" customWidth="1"/>
-    <col min="3" max="3" width="18.1327433628319" customWidth="1"/>
-    <col min="4" max="4" width="17.3274336283186" customWidth="1"/>
-    <col min="5" max="5" width="22.3097345132743" customWidth="1"/>
-    <col min="6" max="6" width="15.9380530973451" customWidth="1"/>
-    <col min="7" max="7" width="22.0442477876106" customWidth="1"/>
+    <col min="1" max="1" width="27.2212389380531" customWidth="1"/>
+    <col min="2" max="2" width="23.8407079646018" customWidth="1"/>
+    <col min="3" max="3" width="22.6371681415929" customWidth="1"/>
+    <col min="4" max="4" width="21.7787610619469" customWidth="1"/>
+    <col min="5" max="5" width="21.3805309734513" customWidth="1"/>
+    <col min="6" max="6" width="23.8318584070796" customWidth="1"/>
+    <col min="7" max="7" width="19.787610619469" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1130,22 +1130,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>7534.00052631579</v>
+        <v>7167.82</v>
       </c>
       <c r="C3">
-        <v>7263.43</v>
+        <v>6946.58</v>
       </c>
       <c r="D3">
-        <v>15189.2393786704</v>
+        <v>11885.7532825397</v>
       </c>
       <c r="E3">
-        <v>414.552631578947</v>
+        <v>384.81746031746</v>
       </c>
       <c r="F3">
-        <v>347.5</v>
+        <v>320.5</v>
       </c>
       <c r="G3">
-        <v>3180.20775623269</v>
+        <v>2107.67699672462</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1245,22 +1245,22 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>7481.33823529412</v>
+        <v>7136.61568181818</v>
       </c>
       <c r="C8">
-        <v>7222.34</v>
+        <v>6752.38</v>
       </c>
       <c r="D8">
-        <v>18321.0840027682</v>
+        <v>27013.3470745351</v>
       </c>
       <c r="E8">
-        <v>415.147058823529</v>
+        <v>388.340909090909</v>
       </c>
       <c r="F8">
-        <v>351.5</v>
+        <v>319.5</v>
       </c>
       <c r="G8">
-        <v>2586.22837370242</v>
+        <v>2707.90650826446</v>
       </c>
     </row>
   </sheetData>
